--- a/ArticleManage/main_working_folder/output_folders/Data 148 Activated carbons prepared from/Data148_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 148 Activated carbons prepared from/Data148_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 HN700  0-1-100-750 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 HN800  0-1-100-750 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 HN900  0-1-100-750 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 PN700  0-1-100-700 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 PN800  0-1-100-700 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 PN900  0-1-100-700 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 1 WN700  0-1-150-500 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 1 WN800  0-1-150-500 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 1 WN900  0-1-150-500 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1 HN700  0&amp;1&amp;100&amp;750 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 HN800  0&amp;1&amp;100&amp;750 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 HN900  0&amp;1&amp;100&amp;750 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 PN700  0&amp;1&amp;100&amp;700 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 PN800  0&amp;1&amp;100&amp;700 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 PN900  0&amp;1&amp;100&amp;700 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 WN700  0&amp;1&amp;150&amp;500 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1 WN800  0&amp;1&amp;150&amp;500 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1 WN900  0&amp;1&amp;150&amp;500 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -188,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 HN700  0-1-100-750 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 HN700  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 HN700  0-1-100-750 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 HN700  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -502,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 HN800  0-1-100-750 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 HN800  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 HN800  0-1-100-750 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 HN800  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -816,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 HN900  0-1-100-750 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 HN900  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 HN900  0-1-100-750 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 HN900  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1130,12 +1130,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PN700  0-1-100-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 PN700  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PN700  0-1-100-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 PN700  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1444,12 +1444,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PN800  0-1-100-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 PN800  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PN800  0-1-100-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 PN800  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1758,12 +1758,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PN900  0-1-100-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 PN900  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PN900  0-1-100-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 PN900  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2072,12 +2072,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 WN700  0-1-150-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 WN700  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 WN700  0-1-150-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 WN700  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2386,12 +2386,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 WN800  0-1-150-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 WN800  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 WN800  0-1-150-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 WN800  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2700,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 WN900  0-1-150-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 WN900  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 WN900  0-1-150-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 WN900  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 148 Activated carbons prepared from/Data148_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 148 Activated carbons prepared from/Data148_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 HN700  0&amp;1&amp;100&amp;750 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 HN800  0&amp;1&amp;100&amp;750 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 HN900  0&amp;1&amp;100&amp;750 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 PN700  0&amp;1&amp;100&amp;700 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 PN800  0&amp;1&amp;100&amp;700 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 PN900  0&amp;1&amp;100&amp;700 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 1 WN700  0&amp;1&amp;150&amp;500 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 1 WN800  0&amp;1&amp;150&amp;500 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 1 WN900  0&amp;1&amp;150&amp;500 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1_1 HN700  0&amp;1&amp;100&amp;750 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 HN800  0&amp;1&amp;100&amp;750 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 HN900  0&amp;1&amp;100&amp;750 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_2 WN700  0&amp;1&amp;150&amp;500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_2 WN800  0&amp;1&amp;150&amp;500 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_2 WN900  0&amp;1&amp;150&amp;500 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_3 PN700  0&amp;1&amp;100&amp;700 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1_3 PN800  0&amp;1&amp;100&amp;700 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1_3 PN900  0&amp;1&amp;100&amp;700 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -37,6 +37,15 @@
     <t>HN900</t>
   </si>
   <si>
+    <t>WN700</t>
+  </si>
+  <si>
+    <t>WN800</t>
+  </si>
+  <si>
+    <t>WN900</t>
+  </si>
+  <si>
     <t>PN700</t>
   </si>
   <si>
@@ -44,15 +53,6 @@
   </si>
   <si>
     <t>PN900</t>
-  </si>
-  <si>
-    <t>WN700</t>
-  </si>
-  <si>
-    <t>WN800</t>
-  </si>
-  <si>
-    <t>WN900</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki HN700 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki HN700 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -188,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 HN700  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 HN700  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 HN700  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 HN700  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -443,7 +443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki HN800 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki HN800 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -502,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 HN800  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 HN800  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 HN800  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 HN800  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -757,7 +757,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki HN900 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki HN900 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -816,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 HN900  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 HN900  0&amp;1&amp;100&amp;750 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 HN900  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 HN900  0&amp;1&amp;100&amp;750 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1071,7 +1071,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PN700 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki WN700 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1130,12 +1130,954 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PN700  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 WN700  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PN700  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 WN700  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki WN800 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 WN800  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 WN800  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki WN900 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 WN900  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 WN900  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PN700 z wykresu 'Figure 1_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_3 PN700  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_3 PN700  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1352,7 +2294,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1385,7 +2327,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PN800 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki PN800 z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1444,12 +2386,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PN800  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 PN800  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PN800  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 PN800  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1666,7 +2608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1699,7 +2641,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PN900 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki PN900 z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1758,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PN900  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 PN900  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PN900  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 PN900  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1849,948 +2791,6 @@
           <c:orientation val="minMax"/>
           <c:max val="700"/>
           <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki WN700 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 WN700  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 WN700  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="150"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki WN800 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 WN800  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 WN800  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="150"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki WN900 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 WN900  0&amp;1&amp;150&amp;500 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 WN900  0&amp;1&amp;150&amp;500 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9464,146 +9464,146 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9641</v>
+        <v>0.9601</v>
       </c>
       <c r="B3" s="0">
-        <v>259.1919</v>
+        <v>249.6669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.906</v>
+        <v>0.9023</v>
       </c>
       <c r="B4" s="0">
-        <v>256.3636</v>
+        <v>247.3356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8507</v>
+        <v>0.8468</v>
       </c>
       <c r="B5" s="0">
-        <v>255.5556</v>
+        <v>246.4613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7938</v>
+        <v>0.7914</v>
       </c>
       <c r="B6" s="0">
-        <v>254.3434</v>
+        <v>246.1699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="B7" s="0">
-        <v>253.1313</v>
+        <v>245.2956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6827</v>
+        <v>0.6788</v>
       </c>
       <c r="B8" s="0">
-        <v>252.7273</v>
+        <v>244.4213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6235</v>
+        <v>0.6234</v>
       </c>
       <c r="B9" s="0">
-        <v>252.3232</v>
+        <v>243.8385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5672</v>
+        <v>0.5673</v>
       </c>
       <c r="B10" s="0">
-        <v>250.7071</v>
+        <v>243.547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5146</v>
+        <v>0.5095</v>
       </c>
       <c r="B11" s="0">
-        <v>249.899</v>
+        <v>242.6728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4572</v>
+        <v>0.4547</v>
       </c>
       <c r="B12" s="0">
-        <v>250.303</v>
+        <v>241.5071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4008</v>
+        <v>0.3987</v>
       </c>
       <c r="B13" s="0">
-        <v>248.6869</v>
+        <v>240.3414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3449</v>
+        <v>0.3427</v>
       </c>
       <c r="B14" s="0">
-        <v>247.0707</v>
+        <v>239.7585</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2891</v>
+        <v>0.2855</v>
       </c>
       <c r="B15" s="0">
-        <v>245.8586</v>
+        <v>238.5928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2327</v>
+        <v>0.2318</v>
       </c>
       <c r="B16" s="0">
-        <v>244.6465</v>
+        <v>236.2614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1769</v>
+        <v>0.1752</v>
       </c>
       <c r="B17" s="0">
-        <v>243.4343</v>
+        <v>233.6386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1216</v>
+        <v>0.1192</v>
       </c>
       <c r="B18" s="0">
-        <v>241.0101</v>
+        <v>229.5587</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0603</v>
+        <v>0.0632</v>
       </c>
       <c r="B19" s="0">
-        <v>235.3535</v>
+        <v>223.4388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0088</v>
+        <v>0.0137</v>
       </c>
       <c r="B20" s="0">
-        <v>218.3838</v>
+        <v>204.4963</v>
       </c>
     </row>
     <row r="21"/>
@@ -9615,7 +9615,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9636,245 +9636,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9735</v>
+        <v>0.9839</v>
       </c>
       <c r="B3" s="0">
-        <v>322.6263</v>
+        <v>333.8884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9381</v>
+        <v>0.9779</v>
       </c>
       <c r="B4" s="0">
-        <v>321.4141</v>
+        <v>328.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9055</v>
+        <v>0.9672</v>
       </c>
       <c r="B5" s="0">
-        <v>319.3939</v>
+        <v>317.5687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8723</v>
+        <v>0.9648</v>
       </c>
       <c r="B6" s="0">
-        <v>318.5859</v>
+        <v>311.1574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8369</v>
+        <v>0.9422</v>
       </c>
       <c r="B7" s="0">
-        <v>317.3737</v>
+        <v>298.0433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8043</v>
+        <v>0.9082</v>
       </c>
       <c r="B8" s="0">
-        <v>316.5657</v>
+        <v>291.632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.77</v>
+        <v>0.8737</v>
       </c>
       <c r="B9" s="0">
-        <v>315.7576</v>
+        <v>288.1349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7369</v>
+        <v>0.8403</v>
       </c>
       <c r="B10" s="0">
-        <v>315.3535</v>
+        <v>284.9292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7043</v>
+        <v>0.8063</v>
       </c>
       <c r="B11" s="0">
-        <v>314.9495</v>
+        <v>282.8893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.67</v>
+        <v>0.7735</v>
       </c>
       <c r="B12" s="0">
-        <v>314.5455</v>
+        <v>281.4321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6363</v>
+        <v>0.7402</v>
       </c>
       <c r="B13" s="0">
-        <v>314.1414</v>
+        <v>279.6836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6025</v>
+        <v>0.7062</v>
       </c>
       <c r="B14" s="0">
-        <v>313.3333</v>
+        <v>278.2265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5694</v>
+        <v>0.6722</v>
       </c>
       <c r="B15" s="0">
-        <v>312.5253</v>
+        <v>276.7694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5368</v>
+        <v>0.6389</v>
       </c>
       <c r="B16" s="0">
-        <v>311.7172</v>
+        <v>275.0208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5019</v>
+        <v>0.6055</v>
       </c>
       <c r="B17" s="0">
-        <v>310.5051</v>
+        <v>273.2723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4682</v>
+        <v>0.5721</v>
       </c>
       <c r="B18" s="0">
-        <v>309.697</v>
+        <v>272.6894</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4339</v>
+        <v>0.5387</v>
       </c>
       <c r="B19" s="0">
-        <v>309.697</v>
+        <v>270.9409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4019</v>
+        <v>0.5054</v>
       </c>
       <c r="B20" s="0">
-        <v>308.8889</v>
+        <v>268.9009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3671</v>
+        <v>0.4708</v>
       </c>
       <c r="B21" s="0">
-        <v>308.0808</v>
+        <v>267.1524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3333</v>
+        <v>0.4374</v>
       </c>
       <c r="B22" s="0">
-        <v>307.2727</v>
+        <v>265.4038</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3002</v>
+        <v>0.4041</v>
       </c>
       <c r="B23" s="0">
-        <v>307.2727</v>
+        <v>263.0724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2664</v>
+        <v>0.3719</v>
       </c>
       <c r="B24" s="0">
-        <v>305.6566</v>
+        <v>260.741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2333</v>
+        <v>0.3373</v>
       </c>
       <c r="B25" s="0">
-        <v>304.0404</v>
+        <v>258.4097</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2001</v>
+        <v>0.3027</v>
       </c>
       <c r="B26" s="0">
-        <v>302.4242</v>
+        <v>254.9126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1658</v>
+        <v>0.2694</v>
       </c>
       <c r="B27" s="0">
-        <v>301.2121</v>
+        <v>251.4155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1327</v>
+        <v>0.2366</v>
       </c>
       <c r="B28" s="0">
-        <v>299.1919</v>
+        <v>246.7527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0984</v>
+        <v>0.2026</v>
       </c>
       <c r="B29" s="0">
-        <v>295.9596</v>
+        <v>242.6728</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0663</v>
+        <v>0.1347</v>
       </c>
       <c r="B30" s="0">
-        <v>291.9192</v>
+        <v>229.5587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0315</v>
+        <v>0.1013</v>
       </c>
       <c r="B31" s="0">
-        <v>281.8182</v>
+        <v>221.3988</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0072</v>
+        <v>0.0685</v>
       </c>
       <c r="B32" s="0">
-        <v>259.1919</v>
-      </c>
-    </row>
-    <row r="33"/>
+        <v>210.9076</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0364</v>
+      </c>
+      <c r="B33" s="0">
+        <v>195.7535</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0149</v>
+      </c>
+      <c r="B34" s="0">
+        <v>179.4338</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9883,7 +9899,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9904,189 +9920,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9679</v>
+        <v>0.0161</v>
       </c>
       <c r="B3" s="0">
-        <v>650.303</v>
+        <v>305.3289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9221</v>
+        <v>0.0304</v>
       </c>
       <c r="B4" s="0">
-        <v>641.0101</v>
+        <v>327.4771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8778</v>
+        <v>0.0578</v>
       </c>
       <c r="B5" s="0">
-        <v>636.9697</v>
+        <v>349.3339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8336</v>
+        <v>0.1007</v>
       </c>
       <c r="B6" s="0">
-        <v>632.9293</v>
+        <v>370.025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7888</v>
+        <v>0.1329</v>
       </c>
       <c r="B7" s="0">
-        <v>630.5051</v>
+        <v>380.5162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7457</v>
+        <v>0.1764</v>
       </c>
       <c r="B8" s="0">
-        <v>628.0808</v>
+        <v>393.6303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7004</v>
+        <v>0.2199</v>
       </c>
       <c r="B9" s="0">
-        <v>625.6566</v>
+        <v>403.2473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6556</v>
+        <v>0.264</v>
       </c>
       <c r="B10" s="0">
-        <v>622.4242</v>
+        <v>411.4072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6108</v>
+        <v>0.3087</v>
       </c>
       <c r="B11" s="0">
-        <v>617.5758</v>
+        <v>417.2356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5677</v>
+        <v>0.357</v>
       </c>
       <c r="B12" s="0">
-        <v>612.3232</v>
+        <v>423.0641</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5229</v>
+        <v>0.4118</v>
       </c>
       <c r="B13" s="0">
-        <v>607.0707</v>
+        <v>427.7269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4776</v>
+        <v>0.4571</v>
       </c>
       <c r="B14" s="0">
-        <v>601.8182</v>
+        <v>430.9326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4317</v>
+        <v>0.5006</v>
       </c>
       <c r="B15" s="0">
-        <v>594.5455</v>
+        <v>435.0125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3897</v>
+        <v>0.5453</v>
       </c>
       <c r="B16" s="0">
-        <v>588.4848</v>
+        <v>437.3439</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3455</v>
+        <v>0.59</v>
       </c>
       <c r="B17" s="0">
-        <v>579.1919</v>
+        <v>440.5495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3013</v>
+        <v>0.6329</v>
       </c>
       <c r="B18" s="0">
-        <v>568.2828</v>
+        <v>442.2981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.257</v>
+        <v>0.6776</v>
       </c>
       <c r="B19" s="0">
-        <v>556.9697</v>
+        <v>445.2123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2123</v>
+        <v>0.7235</v>
       </c>
       <c r="B20" s="0">
-        <v>543.2323</v>
+        <v>446.6694</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.168</v>
+        <v>0.7688</v>
       </c>
       <c r="B21" s="0">
-        <v>526.2626</v>
+        <v>448.418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1227</v>
+        <v>0.8117</v>
       </c>
       <c r="B22" s="0">
-        <v>502.4242</v>
+        <v>450.458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0796</v>
+        <v>0.8576</v>
       </c>
       <c r="B23" s="0">
-        <v>472.5253</v>
+        <v>453.6636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0453</v>
+        <v>0.9029</v>
       </c>
       <c r="B24" s="0">
-        <v>439.3939</v>
+        <v>457.4521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0227</v>
+        <v>0.9458</v>
       </c>
       <c r="B25" s="0">
-        <v>407.4747</v>
-      </c>
-    </row>
-    <row r="26"/>
+        <v>463.2806</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.975</v>
+      </c>
+      <c r="B26" s="0">
+        <v>479.0175</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10116,146 +10140,146 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9601</v>
+        <v>0.9641</v>
       </c>
       <c r="B3" s="0">
-        <v>249.6669</v>
+        <v>259.1919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9023</v>
+        <v>0.906</v>
       </c>
       <c r="B4" s="0">
-        <v>247.3356</v>
+        <v>256.3636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8468</v>
+        <v>0.8507</v>
       </c>
       <c r="B5" s="0">
-        <v>246.4613</v>
+        <v>255.5556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7914</v>
+        <v>0.7938</v>
       </c>
       <c r="B6" s="0">
-        <v>246.1699</v>
+        <v>254.3434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="B7" s="0">
-        <v>245.2956</v>
+        <v>253.1313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6788</v>
+        <v>0.6827</v>
       </c>
       <c r="B8" s="0">
-        <v>244.4213</v>
+        <v>252.7273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6234</v>
+        <v>0.6235</v>
       </c>
       <c r="B9" s="0">
-        <v>243.8385</v>
+        <v>252.3232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5673</v>
+        <v>0.5672</v>
       </c>
       <c r="B10" s="0">
-        <v>243.547</v>
+        <v>250.7071</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5095</v>
+        <v>0.5146</v>
       </c>
       <c r="B11" s="0">
-        <v>242.6728</v>
+        <v>249.899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4547</v>
+        <v>0.4572</v>
       </c>
       <c r="B12" s="0">
-        <v>241.5071</v>
+        <v>250.303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3987</v>
+        <v>0.4008</v>
       </c>
       <c r="B13" s="0">
-        <v>240.3414</v>
+        <v>248.6869</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3427</v>
+        <v>0.3449</v>
       </c>
       <c r="B14" s="0">
-        <v>239.7585</v>
+        <v>247.0707</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2855</v>
+        <v>0.2891</v>
       </c>
       <c r="B15" s="0">
-        <v>238.5928</v>
+        <v>245.8586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2318</v>
+        <v>0.2327</v>
       </c>
       <c r="B16" s="0">
-        <v>236.2614</v>
+        <v>244.6465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1752</v>
+        <v>0.1769</v>
       </c>
       <c r="B17" s="0">
-        <v>233.6386</v>
+        <v>243.4343</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1192</v>
+        <v>0.1216</v>
       </c>
       <c r="B18" s="0">
-        <v>229.5587</v>
+        <v>241.0101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0632</v>
+        <v>0.0603</v>
       </c>
       <c r="B19" s="0">
-        <v>223.4388</v>
+        <v>235.3535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0137</v>
+        <v>0.0088</v>
       </c>
       <c r="B20" s="0">
-        <v>204.4963</v>
+        <v>218.3838</v>
       </c>
     </row>
     <row r="21"/>
@@ -10267,7 +10291,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10288,261 +10312,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9839</v>
+        <v>0.9735</v>
       </c>
       <c r="B3" s="0">
-        <v>333.8884</v>
+        <v>322.6263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9779</v>
+        <v>0.9381</v>
       </c>
       <c r="B4" s="0">
-        <v>328.06</v>
+        <v>321.4141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9672</v>
+        <v>0.9055</v>
       </c>
       <c r="B5" s="0">
-        <v>317.5687</v>
+        <v>319.3939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9648</v>
+        <v>0.8723</v>
       </c>
       <c r="B6" s="0">
-        <v>311.1574</v>
+        <v>318.5859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9422</v>
+        <v>0.8369</v>
       </c>
       <c r="B7" s="0">
-        <v>298.0433</v>
+        <v>317.3737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9082</v>
+        <v>0.8043</v>
       </c>
       <c r="B8" s="0">
-        <v>291.632</v>
+        <v>316.5657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8737</v>
+        <v>0.77</v>
       </c>
       <c r="B9" s="0">
-        <v>288.1349</v>
+        <v>315.7576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8403</v>
+        <v>0.7369</v>
       </c>
       <c r="B10" s="0">
-        <v>284.9292</v>
+        <v>315.3535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8063</v>
+        <v>0.7043</v>
       </c>
       <c r="B11" s="0">
-        <v>282.8893</v>
+        <v>314.9495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7735</v>
+        <v>0.67</v>
       </c>
       <c r="B12" s="0">
-        <v>281.4321</v>
+        <v>314.5455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7402</v>
+        <v>0.6363</v>
       </c>
       <c r="B13" s="0">
-        <v>279.6836</v>
+        <v>314.1414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7062</v>
+        <v>0.6025</v>
       </c>
       <c r="B14" s="0">
-        <v>278.2265</v>
+        <v>313.3333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6722</v>
+        <v>0.5694</v>
       </c>
       <c r="B15" s="0">
-        <v>276.7694</v>
+        <v>312.5253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6389</v>
+        <v>0.5368</v>
       </c>
       <c r="B16" s="0">
-        <v>275.0208</v>
+        <v>311.7172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6055</v>
+        <v>0.5019</v>
       </c>
       <c r="B17" s="0">
-        <v>273.2723</v>
+        <v>310.5051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5721</v>
+        <v>0.4682</v>
       </c>
       <c r="B18" s="0">
-        <v>272.6894</v>
+        <v>309.697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5387</v>
+        <v>0.4339</v>
       </c>
       <c r="B19" s="0">
-        <v>270.9409</v>
+        <v>309.697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5054</v>
+        <v>0.4019</v>
       </c>
       <c r="B20" s="0">
-        <v>268.9009</v>
+        <v>308.8889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4708</v>
+        <v>0.3671</v>
       </c>
       <c r="B21" s="0">
-        <v>267.1524</v>
+        <v>308.0808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4374</v>
+        <v>0.3333</v>
       </c>
       <c r="B22" s="0">
-        <v>265.4038</v>
+        <v>307.2727</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4041</v>
+        <v>0.3002</v>
       </c>
       <c r="B23" s="0">
-        <v>263.0724</v>
+        <v>307.2727</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3719</v>
+        <v>0.2664</v>
       </c>
       <c r="B24" s="0">
-        <v>260.741</v>
+        <v>305.6566</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3373</v>
+        <v>0.2333</v>
       </c>
       <c r="B25" s="0">
-        <v>258.4097</v>
+        <v>304.0404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3027</v>
+        <v>0.2001</v>
       </c>
       <c r="B26" s="0">
-        <v>254.9126</v>
+        <v>302.4242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2694</v>
+        <v>0.1658</v>
       </c>
       <c r="B27" s="0">
-        <v>251.4155</v>
+        <v>301.2121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2366</v>
+        <v>0.1327</v>
       </c>
       <c r="B28" s="0">
-        <v>246.7527</v>
+        <v>299.1919</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.2026</v>
+        <v>0.0984</v>
       </c>
       <c r="B29" s="0">
-        <v>242.6728</v>
+        <v>295.9596</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1347</v>
+        <v>0.0663</v>
       </c>
       <c r="B30" s="0">
-        <v>229.5587</v>
+        <v>291.9192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.1013</v>
+        <v>0.0315</v>
       </c>
       <c r="B31" s="0">
-        <v>221.3988</v>
+        <v>281.8182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0685</v>
+        <v>0.0072</v>
       </c>
       <c r="B32" s="0">
-        <v>210.9076</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0364</v>
-      </c>
-      <c r="B33" s="0">
-        <v>195.7535</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0149</v>
-      </c>
-      <c r="B34" s="0">
-        <v>179.4338</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>259.1919</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10551,7 +10559,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10572,197 +10580,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0161</v>
+        <v>0.9679</v>
       </c>
       <c r="B3" s="0">
-        <v>305.3289</v>
+        <v>650.303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0304</v>
+        <v>0.9221</v>
       </c>
       <c r="B4" s="0">
-        <v>327.4771</v>
+        <v>641.0101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0578</v>
+        <v>0.8778</v>
       </c>
       <c r="B5" s="0">
-        <v>349.3339</v>
+        <v>636.9697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1007</v>
+        <v>0.8336</v>
       </c>
       <c r="B6" s="0">
-        <v>370.025</v>
+        <v>632.9293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1329</v>
+        <v>0.7888</v>
       </c>
       <c r="B7" s="0">
-        <v>380.5162</v>
+        <v>630.5051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1764</v>
+        <v>0.7457</v>
       </c>
       <c r="B8" s="0">
-        <v>393.6303</v>
+        <v>628.0808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2199</v>
+        <v>0.7004</v>
       </c>
       <c r="B9" s="0">
-        <v>403.2473</v>
+        <v>625.6566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.264</v>
+        <v>0.6556</v>
       </c>
       <c r="B10" s="0">
-        <v>411.4072</v>
+        <v>622.4242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3087</v>
+        <v>0.6108</v>
       </c>
       <c r="B11" s="0">
-        <v>417.2356</v>
+        <v>617.5758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.357</v>
+        <v>0.5677</v>
       </c>
       <c r="B12" s="0">
-        <v>423.0641</v>
+        <v>612.3232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4118</v>
+        <v>0.5229</v>
       </c>
       <c r="B13" s="0">
-        <v>427.7269</v>
+        <v>607.0707</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4571</v>
+        <v>0.4776</v>
       </c>
       <c r="B14" s="0">
-        <v>430.9326</v>
+        <v>601.8182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5006</v>
+        <v>0.4317</v>
       </c>
       <c r="B15" s="0">
-        <v>435.0125</v>
+        <v>594.5455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5453</v>
+        <v>0.3897</v>
       </c>
       <c r="B16" s="0">
-        <v>437.3439</v>
+        <v>588.4848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.59</v>
+        <v>0.3455</v>
       </c>
       <c r="B17" s="0">
-        <v>440.5495</v>
+        <v>579.1919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6329</v>
+        <v>0.3013</v>
       </c>
       <c r="B18" s="0">
-        <v>442.2981</v>
+        <v>568.2828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6776</v>
+        <v>0.257</v>
       </c>
       <c r="B19" s="0">
-        <v>445.2123</v>
+        <v>556.9697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7235</v>
+        <v>0.2123</v>
       </c>
       <c r="B20" s="0">
-        <v>446.6694</v>
+        <v>543.2323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7688</v>
+        <v>0.168</v>
       </c>
       <c r="B21" s="0">
-        <v>448.418</v>
+        <v>526.2626</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8117</v>
+        <v>0.1227</v>
       </c>
       <c r="B22" s="0">
-        <v>450.458</v>
+        <v>502.4242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8576</v>
+        <v>0.0796</v>
       </c>
       <c r="B23" s="0">
-        <v>453.6636</v>
+        <v>472.5253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9029</v>
+        <v>0.0453</v>
       </c>
       <c r="B24" s="0">
-        <v>457.4521</v>
+        <v>439.3939</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9458</v>
+        <v>0.0227</v>
       </c>
       <c r="B25" s="0">
-        <v>463.2806</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.975</v>
-      </c>
-      <c r="B26" s="0">
-        <v>479.0175</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>407.4747</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
